--- a/DS&AS Budget.xlsx
+++ b/DS&AS Budget.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="8892"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="112">
   <si>
     <t>ITEM DESCRIPTION</t>
   </si>
@@ -219,9 +219,6 @@
   </si>
   <si>
     <t>Water dispenser (Hot &amp; Cold)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presidential Portrait </t>
   </si>
   <si>
     <t>Utensils,Plates,Cups,Glasses (assorted)</t>
@@ -372,7 +369,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,6 +408,15 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -429,11 +435,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
@@ -456,9 +463,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -737,16 +746,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M104"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="95.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="115.21875" style="4" customWidth="1"/>
     <col min="3" max="3" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.21875" style="5" bestFit="1" customWidth="1"/>
@@ -857,7 +866,7 @@
         <v>20000</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" ref="E4:E68" si="0">D4*C4</f>
+        <f t="shared" ref="E4:E67" si="0">D4*C4</f>
         <v>20000</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -923,14 +932,14 @@
         <v>20</v>
       </c>
       <c r="C6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="5">
         <v>500</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>14</v>
@@ -959,14 +968,14 @@
         <v>21</v>
       </c>
       <c r="C7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="5">
         <v>500</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>14</v>
@@ -995,14 +1004,14 @@
         <v>22</v>
       </c>
       <c r="C8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="5">
         <v>15000</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>14</v>
@@ -1067,14 +1076,14 @@
         <v>24</v>
       </c>
       <c r="C10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="5">
         <v>50000</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>14</v>
@@ -1103,14 +1112,14 @@
         <v>25</v>
       </c>
       <c r="C11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="5">
         <v>20000</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>14</v>
@@ -1139,14 +1148,14 @@
         <v>26</v>
       </c>
       <c r="C12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="5">
         <v>4000</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>14</v>
@@ -1247,14 +1256,14 @@
         <v>29</v>
       </c>
       <c r="C15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="5">
         <v>500</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>14</v>
@@ -1283,14 +1292,14 @@
         <v>30</v>
       </c>
       <c r="C16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="5">
         <v>700</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>14</v>
@@ -1319,14 +1328,14 @@
         <v>31</v>
       </c>
       <c r="C17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="5">
         <v>1000</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>14</v>
@@ -1355,14 +1364,14 @@
         <v>32</v>
       </c>
       <c r="C18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="5">
         <v>10000</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>14</v>
@@ -1391,14 +1400,14 @@
         <v>33</v>
       </c>
       <c r="C19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="5">
         <v>20000</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>14</v>
@@ -1427,14 +1436,14 @@
         <v>34</v>
       </c>
       <c r="C20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="5">
         <v>5000</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>14</v>
@@ -1463,14 +1472,14 @@
         <v>35</v>
       </c>
       <c r="C21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="5">
         <v>5000</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>14</v>
@@ -1499,14 +1508,14 @@
         <v>33</v>
       </c>
       <c r="C22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="5">
         <v>20000</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>14</v>
@@ -1811,7 +1820,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -1838,7 +1847,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C32" s="6">
         <v>1</v>
@@ -2123,14 +2132,14 @@
         <v>53</v>
       </c>
       <c r="C42" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="5">
         <v>15000</v>
       </c>
       <c r="E42" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>14</v>
@@ -2153,14 +2162,14 @@
         <v>54</v>
       </c>
       <c r="C43" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="5">
         <v>12000</v>
       </c>
       <c r="E43" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>14</v>
@@ -2183,14 +2192,14 @@
         <v>55</v>
       </c>
       <c r="C44" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="5">
         <v>300</v>
       </c>
       <c r="E44" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>14</v>
@@ -2213,14 +2222,14 @@
         <v>56</v>
       </c>
       <c r="C45" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="5">
         <v>200</v>
       </c>
       <c r="E45" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>14</v>
@@ -2243,14 +2252,14 @@
         <v>57</v>
       </c>
       <c r="C46" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="5">
         <v>100</v>
       </c>
       <c r="E46" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>14</v>
@@ -2273,14 +2282,14 @@
         <v>58</v>
       </c>
       <c r="C47" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="5">
         <v>150</v>
       </c>
       <c r="E47" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>14</v>
@@ -2303,14 +2312,14 @@
         <v>59</v>
       </c>
       <c r="C48" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="5">
         <v>9500</v>
       </c>
       <c r="E48" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>14</v>
@@ -2333,14 +2342,14 @@
         <v>60</v>
       </c>
       <c r="C49" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" s="5">
         <v>5000</v>
       </c>
       <c r="E49" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>14</v>
@@ -2384,14 +2393,14 @@
         <v>62</v>
       </c>
       <c r="C51" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="5">
         <v>20000</v>
       </c>
       <c r="E51" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>14</v>
@@ -2414,14 +2423,14 @@
         <v>63</v>
       </c>
       <c r="C52" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" s="5">
         <v>50000</v>
       </c>
       <c r="E52" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>14</v>
@@ -2444,14 +2453,14 @@
         <v>64</v>
       </c>
       <c r="C53" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="5">
         <v>20000</v>
       </c>
       <c r="E53" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>14</v>
@@ -2474,63 +2483,51 @@
         <v>65</v>
       </c>
       <c r="C54" s="4">
+        <v>1</v>
+      </c>
+      <c r="D54" s="5">
+        <v>1500</v>
+      </c>
+      <c r="E54" s="5">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E55" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D54" s="5">
-        <v>10000</v>
-      </c>
-      <c r="E54" s="5">
+      <c r="F55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L54" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
-        <v>5</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C55" s="4">
-        <v>0</v>
-      </c>
-      <c r="D55" s="5">
-        <v>1500</v>
-      </c>
-      <c r="E55" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L55" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E56" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="F56" s="4" t="s">
         <v>14</v>
       </c>
@@ -2542,12 +2539,21 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="3">
+        <v>1</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>67</v>
       </c>
+      <c r="C57" s="4">
+        <v>1</v>
+      </c>
+      <c r="D57" s="5">
+        <v>120000</v>
+      </c>
       <c r="E57" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>14</v>
@@ -2557,24 +2563,33 @@
       </c>
       <c r="H57" s="4" t="s">
         <v>16</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" s="5">
-        <v>120000</v>
+        <v>18000</v>
       </c>
       <c r="E58" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>14</v>
@@ -2597,20 +2612,20 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" s="5">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="E59" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45000</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>14</v>
@@ -2633,20 +2648,20 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" s="5">
-        <v>45000</v>
+        <v>60000</v>
       </c>
       <c r="E60" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>14</v>
@@ -2669,20 +2684,20 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" s="5">
-        <v>60000</v>
+        <v>25000</v>
       </c>
       <c r="E61" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>14</v>
@@ -2705,20 +2720,20 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" s="5">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="E62" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>14</v>
@@ -2741,20 +2756,20 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" s="5">
-        <v>30000</v>
+        <v>150000</v>
       </c>
       <c r="E63" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>14</v>
@@ -2777,20 +2792,20 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" s="5">
-        <v>150000</v>
+        <v>30000</v>
       </c>
       <c r="E64" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>14</v>
@@ -2813,20 +2828,20 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" s="5">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="E65" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>14</v>
@@ -2849,20 +2864,20 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" s="5">
-        <v>50000</v>
+        <v>28000</v>
       </c>
       <c r="E66" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28000</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>14</v>
@@ -2885,136 +2900,130 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C67" s="4">
+        <v>1</v>
+      </c>
+      <c r="D67" s="5">
+        <v>22500</v>
+      </c>
+      <c r="E67" s="5">
+        <f t="shared" si="0"/>
+        <v>22500</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" s="4">
+        <v>1</v>
+      </c>
+      <c r="E68" s="5">
+        <f t="shared" ref="E68:E99" si="1">D68*C68</f>
         <v>0</v>
       </c>
-      <c r="D67" s="5">
-        <v>28000</v>
-      </c>
-      <c r="E67" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J67" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K67" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
-        <v>11</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C68" s="4">
-        <v>0</v>
-      </c>
-      <c r="D68" s="5">
-        <v>22500</v>
-      </c>
-      <c r="E68" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J68" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K68" s="4" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="3">
+        <v>1</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>79</v>
       </c>
+      <c r="C69" s="4">
+        <v>1</v>
+      </c>
+      <c r="D69" s="5">
+        <v>6000</v>
+      </c>
       <c r="E69" s="5">
-        <f t="shared" ref="E69:E100" si="1">D69*C69</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M69" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
-        <v>1</v>
-      </c>
-      <c r="B70" s="4" t="s">
+      <c r="A70" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C70" s="4">
-        <v>1</v>
-      </c>
-      <c r="D70" s="5">
-        <v>6000</v>
       </c>
       <c r="E70" s="5">
         <f t="shared" si="1"/>
-        <v>6000</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K70" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M70" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="3">
+        <v>1</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>81</v>
+      </c>
+      <c r="C71" s="4">
+        <v>1</v>
+      </c>
+      <c r="D71" s="5">
+        <v>0</v>
       </c>
       <c r="E71" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="F71" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>82</v>
@@ -3041,7 +3050,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>83</v>
@@ -3068,7 +3077,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>84</v>
@@ -3095,7 +3104,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>85</v>
@@ -3122,16 +3131,10 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="C76" s="4">
-        <v>1</v>
-      </c>
-      <c r="D76" s="5">
-        <v>0</v>
       </c>
       <c r="E76" s="5">
         <f t="shared" si="1"/>
@@ -3148,10 +3151,7 @@
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A77" s="3">
-        <v>6</v>
-      </c>
-      <c r="B77" s="4" t="s">
+      <c r="A77" s="3" t="s">
         <v>87</v>
       </c>
       <c r="E77" s="5">
@@ -3169,12 +3169,21 @@
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="3">
+        <v>1</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>88</v>
+      </c>
+      <c r="C78" s="4">
+        <v>1</v>
+      </c>
+      <c r="D78" s="5">
+        <v>9200</v>
       </c>
       <c r="E78" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>14</v>
@@ -3184,24 +3193,33 @@
       </c>
       <c r="H78" s="4" t="s">
         <v>16</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C79" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" s="5">
-        <v>9200</v>
+        <v>850</v>
       </c>
       <c r="E79" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>14</v>
@@ -3224,20 +3242,20 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C80" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" s="5">
-        <v>850</v>
+        <v>320</v>
       </c>
       <c r="E80" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>14</v>
@@ -3260,20 +3278,20 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C81" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" s="5">
-        <v>320</v>
+        <v>600</v>
       </c>
       <c r="E81" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>14</v>
@@ -3296,20 +3314,20 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C82" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" s="5">
-        <v>600</v>
+        <v>3500</v>
       </c>
       <c r="E82" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>14</v>
@@ -3332,20 +3350,20 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C83" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" s="5">
-        <v>3500</v>
+        <v>5760</v>
       </c>
       <c r="E83" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5760</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>14</v>
@@ -3367,18 +3385,6 @@
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A84" s="3">
-        <v>6</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C84" s="4">
-        <v>0</v>
-      </c>
-      <c r="D84" s="5">
-        <v>5760</v>
-      </c>
       <c r="E84" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3392,17 +3398,11 @@
       <c r="H84" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I84" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J84" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K84" s="4" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="E85" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3418,12 +3418,21 @@
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="3">
+        <v>1</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>95</v>
+      </c>
+      <c r="C86" s="4">
+        <v>100</v>
+      </c>
+      <c r="D86" s="5">
+        <v>25</v>
       </c>
       <c r="E86" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>14</v>
@@ -3434,23 +3443,20 @@
       <c r="H86" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="I86" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K86" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A87" s="3">
-        <v>1</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C87" s="4">
-        <v>100</v>
-      </c>
-      <c r="D87" s="5">
-        <v>25</v>
-      </c>
       <c r="E87" s="5">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>14</v>
@@ -3461,40 +3467,48 @@
       <c r="H87" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I87" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J87" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K87" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C88" s="10"/>
+      <c r="D88" s="11"/>
       <c r="E88" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F88" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="G88" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="9" t="s">
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="10"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A89" s="3">
+        <v>1</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C89" s="10"/>
-      <c r="D89" s="11"/>
+      <c r="C89" s="4">
+        <v>1</v>
+      </c>
+      <c r="D89" s="5">
+        <v>400000</v>
+      </c>
       <c r="E89" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>400000</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>15</v>
@@ -3502,15 +3516,10 @@
       <c r="H89" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I89" s="12"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="12"/>
-      <c r="M89" s="10"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>98</v>
@@ -3537,7 +3546,7 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>99</v>
@@ -3546,11 +3555,11 @@
         <v>1</v>
       </c>
       <c r="D91" s="5">
-        <v>400000</v>
+        <v>150000</v>
       </c>
       <c r="E91" s="5">
         <f t="shared" si="1"/>
-        <v>400000</v>
+        <v>150000</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>14</v>
@@ -3564,7 +3573,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>100</v>
@@ -3591,9 +3600,9 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
-        <v>4</v>
-      </c>
-      <c r="B93" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>101</v>
       </c>
       <c r="C93" s="4">
@@ -3618,9 +3627,9 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
-        <v>5</v>
-      </c>
-      <c r="B94" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" s="6" t="s">
         <v>102</v>
       </c>
       <c r="C94" s="4">
@@ -3645,7 +3654,7 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>103</v>
@@ -3672,7 +3681,7 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>104</v>
@@ -3699,7 +3708,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>105</v>
@@ -3726,7 +3735,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>106</v>
@@ -3753,66 +3762,42 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99" s="6">
         <v>1</v>
       </c>
       <c r="D99" s="5">
-        <v>150000</v>
+        <v>2000000</v>
       </c>
       <c r="E99" s="5">
         <f t="shared" si="1"/>
-        <v>150000</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="3">
-        <v>11</v>
-      </c>
-      <c r="B100" s="6" t="s">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C100" s="6">
-        <v>0</v>
-      </c>
-      <c r="D100" s="5">
-        <v>2000000</v>
-      </c>
-      <c r="E100" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8">
-        <f>SUM(E3:E100)</f>
-        <v>6140000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B104" s="4" t="s">
-        <v>111</v>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8">
+        <f>SUM(E3:E99)</f>
+        <v>9024680</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B103" s="14" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B103" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>